--- a/Files/new.xlsx
+++ b/Files/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Projects\EasyExcelComparetool\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B36CA8-083D-4293-81C1-D96CA9FD569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1957C6D-BDB4-4BAA-843C-7A7028B5465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
   <si>
     <t>recordid</t>
-  </si>
-  <si>
-    <t>&lt;fullpath&gt;</t>
   </si>
   <si>
     <t>&lt;realpath&gt;</t>
@@ -523,9 +520,6 @@
   </si>
   <si>
     <t>DSEngine-+-ds_browser_ds_task_xp2-+-1552579914448</t>
-  </si>
-  <si>
-    <t>1552579914448</t>
   </si>
   <si>
     <t>嫂踃_桵媾_DIY_28172202_1552579914448.xml</t>
@@ -601,9 +595,6 @@
     <t>解决方案负责人</t>
   </si>
   <si>
-    <t>30k-60k</t>
-  </si>
-  <si>
     <t>云计算
                                         销售</t>
   </si>
@@ -665,9 +656,6 @@
     <t>/深圳 /</t>
   </si>
   <si>
-    <t>经验10年以上 /</t>
-  </si>
-  <si>
     <t>部门管理
                                         目标管理</t>
   </si>
@@ -759,9 +747,6 @@
   </si>
   <si>
     <t>https://www.lagou.com/jobs/5277513.html</t>
-  </si>
-  <si>
-    <t>2019-03-15 00:15:33.0</t>
   </si>
   <si>
     <t>DSEngine-+-ds_browser_ds_task_xp1-+-1552580133230</t>
@@ -824,9 +809,6 @@
   </si>
   <si>
     <t>https://www.lagou.com/jobs/5391326.html</t>
-  </si>
-  <si>
-    <t>2019-03-15 00:15:42.0</t>
   </si>
   <si>
     <t>DSEngine-+-ds_browser_ds_task_xp1-+-1552580142284</t>
@@ -884,6 +866,10 @@
   </si>
   <si>
     <t>https://www.lagou.com/gongsi/356.html</t>
+  </si>
+  <si>
+    <t>&lt;fullpath&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -933,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +927,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,14 +1212,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.375" customWidth="1"/>
     <col min="20" max="20" width="24.125" customWidth="1"/>
     <col min="21" max="21" width="65.375" customWidth="1"/>
@@ -1241,1117 +1234,1122 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>11123</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="1">
+        <v>12322123</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>1.55257991231232E+23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="W8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1">
+        <v>12312312321</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="W9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="N10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="P10" s="1">
+        <v>41241212412</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="W10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="M11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="R11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="T11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="W11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43525</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="N12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="W12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="O13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="T13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="W13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>208</v>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q17">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
